--- a/SchedulingData/dynamic15/pso/scheduling1_11.xlsx
+++ b/SchedulingData/dynamic15/pso/scheduling1_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,230 +462,230 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>59.16</v>
+        <v>68.08</v>
       </c>
       <c r="E2" t="n">
-        <v>26.744</v>
+        <v>26.352</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>68.08</v>
       </c>
       <c r="D3" t="n">
-        <v>49.56</v>
+        <v>114.38</v>
       </c>
       <c r="E3" t="n">
-        <v>26.724</v>
+        <v>23.832</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>43.24</v>
+        <v>85.28</v>
       </c>
       <c r="E4" t="n">
-        <v>26.876</v>
+        <v>26.612</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49.56</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>136.46</v>
+        <v>56.2</v>
       </c>
       <c r="E5" t="n">
-        <v>22.164</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>43.24</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>97.72</v>
+        <v>60.62</v>
       </c>
       <c r="E6" t="n">
-        <v>24.068</v>
+        <v>27.088</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>56.2</v>
+        <v>66.36</v>
       </c>
       <c r="E7" t="n">
-        <v>25.08</v>
+        <v>26.024</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>66.36</v>
       </c>
       <c r="D8" t="n">
-        <v>55.78</v>
+        <v>148.06</v>
       </c>
       <c r="E8" t="n">
-        <v>26.592</v>
+        <v>21.464</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>85.28</v>
       </c>
       <c r="D9" t="n">
-        <v>66.22</v>
+        <v>145.78</v>
       </c>
       <c r="E9" t="n">
-        <v>26.048</v>
+        <v>21.692</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>56.2</v>
+        <v>148.06</v>
       </c>
       <c r="D10" t="n">
-        <v>109.22</v>
+        <v>205.76</v>
       </c>
       <c r="E10" t="n">
-        <v>21.888</v>
+        <v>17.824</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>97.72</v>
+        <v>114.38</v>
       </c>
       <c r="D11" t="n">
-        <v>132.72</v>
+        <v>176.76</v>
       </c>
       <c r="E11" t="n">
-        <v>21.208</v>
+        <v>19.724</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>66.22</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>142.32</v>
+        <v>64.52</v>
       </c>
       <c r="E12" t="n">
-        <v>21.068</v>
+        <v>26.208</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>132.72</v>
+        <v>205.76</v>
       </c>
       <c r="D13" t="n">
-        <v>184.22</v>
+        <v>268.86</v>
       </c>
       <c r="E13" t="n">
-        <v>18.688</v>
+        <v>13.144</v>
       </c>
     </row>
     <row r="14">
@@ -694,378 +694,378 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>55.78</v>
+        <v>176.76</v>
       </c>
       <c r="D14" t="n">
-        <v>118.38</v>
+        <v>220.92</v>
       </c>
       <c r="E14" t="n">
-        <v>23.472</v>
+        <v>16.448</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>118.38</v>
+        <v>56.2</v>
       </c>
       <c r="D15" t="n">
-        <v>162.32</v>
+        <v>132</v>
       </c>
       <c r="E15" t="n">
-        <v>20.208</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>162.32</v>
+        <v>132</v>
       </c>
       <c r="D16" t="n">
-        <v>212.9</v>
+        <v>190.26</v>
       </c>
       <c r="E16" t="n">
-        <v>17.26</v>
+        <v>16.404</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>212.9</v>
+        <v>60.62</v>
       </c>
       <c r="D17" t="n">
-        <v>272.3</v>
+        <v>104.48</v>
       </c>
       <c r="E17" t="n">
-        <v>12.46</v>
+        <v>23.832</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>142.32</v>
+        <v>190.26</v>
       </c>
       <c r="D18" t="n">
-        <v>185.2</v>
+        <v>272.14</v>
       </c>
       <c r="E18" t="n">
-        <v>17.42</v>
+        <v>12.816</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>59.16</v>
+        <v>268.86</v>
       </c>
       <c r="D19" t="n">
-        <v>97.81999999999999</v>
+        <v>349.16</v>
       </c>
       <c r="E19" t="n">
-        <v>24.008</v>
+        <v>9.224</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>184.22</v>
+        <v>220.92</v>
       </c>
       <c r="D20" t="n">
-        <v>243.24</v>
+        <v>278.32</v>
       </c>
       <c r="E20" t="n">
-        <v>14.896</v>
+        <v>13.328</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>243.24</v>
+        <v>145.78</v>
       </c>
       <c r="D21" t="n">
-        <v>292.62</v>
+        <v>217.2</v>
       </c>
       <c r="E21" t="n">
-        <v>11.088</v>
+        <v>17.66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>109.22</v>
+        <v>349.16</v>
       </c>
       <c r="D22" t="n">
-        <v>175.74</v>
+        <v>416.2</v>
       </c>
       <c r="E22" t="n">
-        <v>18.336</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>292.62</v>
+        <v>104.48</v>
       </c>
       <c r="D23" t="n">
-        <v>343.12</v>
+        <v>175.7</v>
       </c>
       <c r="E23" t="n">
-        <v>7.168</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>97.81999999999999</v>
+        <v>64.52</v>
       </c>
       <c r="D24" t="n">
-        <v>141.68</v>
+        <v>111.02</v>
       </c>
       <c r="E24" t="n">
-        <v>20.752</v>
+        <v>22.688</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>175.74</v>
+        <v>217.2</v>
       </c>
       <c r="D25" t="n">
-        <v>231.9</v>
+        <v>281.8</v>
       </c>
       <c r="E25" t="n">
-        <v>15.32</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>185.2</v>
+        <v>111.02</v>
       </c>
       <c r="D26" t="n">
-        <v>243.7</v>
+        <v>163.02</v>
       </c>
       <c r="E26" t="n">
-        <v>14.18</v>
+        <v>19.608</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>141.68</v>
+        <v>281.8</v>
       </c>
       <c r="D27" t="n">
-        <v>207.64</v>
+        <v>338.62</v>
       </c>
       <c r="E27" t="n">
-        <v>16.776</v>
+        <v>10.748</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>136.46</v>
+        <v>272.14</v>
       </c>
       <c r="D28" t="n">
-        <v>181.56</v>
+        <v>304.34</v>
       </c>
       <c r="E28" t="n">
-        <v>18.784</v>
+        <v>10.736</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>231.9</v>
+        <v>416.2</v>
       </c>
       <c r="D29" t="n">
-        <v>290.06</v>
+        <v>464.88</v>
       </c>
       <c r="E29" t="n">
-        <v>11.624</v>
+        <v>2.852</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>343.12</v>
+        <v>464.88</v>
       </c>
       <c r="D30" t="n">
-        <v>410.3</v>
+        <v>545.98</v>
       </c>
       <c r="E30" t="n">
-        <v>3.58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>207.64</v>
+        <v>545.98</v>
       </c>
       <c r="D31" t="n">
-        <v>267.54</v>
+        <v>610.22</v>
       </c>
       <c r="E31" t="n">
-        <v>13.396</v>
+        <v>26.736</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>272.3</v>
+        <v>163.02</v>
       </c>
       <c r="D32" t="n">
-        <v>356.66</v>
+        <v>242.42</v>
       </c>
       <c r="E32" t="n">
-        <v>9.603999999999999</v>
+        <v>14.808</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>290.06</v>
+        <v>278.32</v>
       </c>
       <c r="D33" t="n">
-        <v>345.24</v>
+        <v>322.02</v>
       </c>
       <c r="E33" t="n">
-        <v>8.236000000000001</v>
+        <v>10.088</v>
       </c>
     </row>
     <row r="34">
@@ -1074,136 +1074,136 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>345.24</v>
+        <v>242.42</v>
       </c>
       <c r="D34" t="n">
-        <v>417.02</v>
+        <v>313.58</v>
       </c>
       <c r="E34" t="n">
-        <v>4.648</v>
+        <v>11.792</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>267.54</v>
+        <v>322.02</v>
       </c>
       <c r="D35" t="n">
-        <v>332.94</v>
+        <v>390.96</v>
       </c>
       <c r="E35" t="n">
-        <v>8.476000000000001</v>
+        <v>6.784</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>243.7</v>
+        <v>175.7</v>
       </c>
       <c r="D36" t="n">
-        <v>286.2</v>
+        <v>251.64</v>
       </c>
       <c r="E36" t="n">
-        <v>11.06</v>
+        <v>15.796</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>181.56</v>
+        <v>251.64</v>
       </c>
       <c r="D37" t="n">
-        <v>260.96</v>
+        <v>290.3</v>
       </c>
       <c r="E37" t="n">
-        <v>15.424</v>
+        <v>13.06</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>286.2</v>
+        <v>304.34</v>
       </c>
       <c r="D38" t="n">
-        <v>343.48</v>
+        <v>354.24</v>
       </c>
       <c r="E38" t="n">
-        <v>6.952</v>
+        <v>7.876</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>260.96</v>
+        <v>354.24</v>
       </c>
       <c r="D39" t="n">
-        <v>323.36</v>
+        <v>443.22</v>
       </c>
       <c r="E39" t="n">
-        <v>11.784</v>
+        <v>4.068</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>332.94</v>
+        <v>390.96</v>
       </c>
       <c r="D40" t="n">
-        <v>381.28</v>
+        <v>451.14</v>
       </c>
       <c r="E40" t="n">
-        <v>5.772</v>
+        <v>3.376</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1211,108 +1211,108 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>323.36</v>
+        <v>290.3</v>
       </c>
       <c r="D41" t="n">
-        <v>366.06</v>
+        <v>323.3</v>
       </c>
       <c r="E41" t="n">
-        <v>9.624000000000001</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>356.66</v>
+        <v>338.62</v>
       </c>
       <c r="D42" t="n">
-        <v>408.82</v>
+        <v>413.44</v>
       </c>
       <c r="E42" t="n">
-        <v>7.008</v>
+        <v>7.836</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>417.02</v>
+        <v>451.14</v>
       </c>
       <c r="D43" t="n">
-        <v>470.68</v>
+        <v>536.09</v>
       </c>
       <c r="E43" t="n">
-        <v>1.912</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>470.68</v>
+        <v>536.09</v>
       </c>
       <c r="D44" t="n">
-        <v>548.66</v>
+        <v>611.1900000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>30</v>
+        <v>26.62</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>408.82</v>
+        <v>443.22</v>
       </c>
       <c r="D45" t="n">
-        <v>465.22</v>
+        <v>504.44</v>
       </c>
       <c r="E45" t="n">
-        <v>3.488</v>
+        <v>1.076</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>366.06</v>
+        <v>504.44</v>
       </c>
       <c r="D46" t="n">
-        <v>428.06</v>
+        <v>603.6900000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>6.544</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
@@ -1321,136 +1321,136 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>381.28</v>
+        <v>323.3</v>
       </c>
       <c r="D47" t="n">
-        <v>427.4</v>
+        <v>365.58</v>
       </c>
       <c r="E47" t="n">
-        <v>2.78</v>
+        <v>7.312</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>465.22</v>
+        <v>603.6900000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>549.74</v>
+        <v>654.15</v>
       </c>
       <c r="E48" t="n">
-        <v>30</v>
+        <v>27.144</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>549.74</v>
+        <v>654.15</v>
       </c>
       <c r="D49" t="n">
-        <v>616.96</v>
+        <v>729.4299999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>25.968</v>
+        <v>24.196</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>427.4</v>
+        <v>413.44</v>
       </c>
       <c r="D50" t="n">
-        <v>523.24</v>
+        <v>487</v>
       </c>
       <c r="E50" t="n">
-        <v>30</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>523.24</v>
+        <v>313.58</v>
       </c>
       <c r="D51" t="n">
-        <v>599.6799999999999</v>
+        <v>352.24</v>
       </c>
       <c r="E51" t="n">
-        <v>25.996</v>
+        <v>9.055999999999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>428.06</v>
+        <v>365.58</v>
       </c>
       <c r="D52" t="n">
-        <v>477.4</v>
+        <v>418.7</v>
       </c>
       <c r="E52" t="n">
-        <v>3.24</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>548.66</v>
+        <v>418.7</v>
       </c>
       <c r="D53" t="n">
-        <v>622.16</v>
+        <v>466.6</v>
       </c>
       <c r="E53" t="n">
-        <v>25.32</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>477.4</v>
+        <v>466.6</v>
       </c>
       <c r="D54" t="n">
-        <v>567.3200000000001</v>
+        <v>542.48</v>
       </c>
       <c r="E54" t="n">
         <v>30</v>
@@ -1469,154 +1469,116 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>567.3200000000001</v>
+        <v>542.48</v>
       </c>
       <c r="D55" t="n">
-        <v>620.72</v>
+        <v>590.14</v>
       </c>
       <c r="E55" t="n">
-        <v>26.34</v>
+        <v>27.404</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>343.48</v>
+        <v>352.24</v>
       </c>
       <c r="D56" t="n">
-        <v>393.8</v>
+        <v>402.24</v>
       </c>
       <c r="E56" t="n">
-        <v>4.04</v>
+        <v>5.676</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>410.3</v>
+        <v>610.22</v>
       </c>
       <c r="D57" t="n">
-        <v>450.82</v>
+        <v>664.3</v>
       </c>
       <c r="E57" t="n">
-        <v>0.668</v>
+        <v>23.928</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>450.82</v>
+        <v>590.14</v>
       </c>
       <c r="D58" t="n">
-        <v>550.98</v>
+        <v>633.48</v>
       </c>
       <c r="E58" t="n">
-        <v>30</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>393.8</v>
+        <v>633.48</v>
       </c>
       <c r="D59" t="n">
-        <v>460.32</v>
+        <v>684.3</v>
       </c>
       <c r="E59" t="n">
-        <v>0.008</v>
+        <v>20.748</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>460.32</v>
+        <v>402.24</v>
       </c>
       <c r="D60" t="n">
-        <v>542.1</v>
+        <v>474.54</v>
       </c>
       <c r="E60" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>4</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>pond62</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>550.98</v>
-      </c>
-      <c r="D61" t="n">
-        <v>615.26</v>
-      </c>
-      <c r="E61" t="n">
-        <v>26.752</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>4</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>pond39</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>615.26</v>
-      </c>
-      <c r="D62" t="n">
-        <v>657.36</v>
-      </c>
-      <c r="E62" t="n">
-        <v>24.672</v>
+        <v>2.556</v>
       </c>
     </row>
   </sheetData>
